--- a/medicine/Psychotrope/Dolcetto_d'Alba/Dolcetto_d'Alba.xlsx
+++ b/medicine/Psychotrope/Dolcetto_d'Alba/Dolcetto_d'Alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Alba</t>
+          <t>Dolcetto_d'Alba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  Dolcetto d'Alba  est un vin italien de la région Piémont doté d'une appellation DOC depuis le 16 juillet 1974. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Coni et en province d'Asti dans les communes d'Alba, Albaretto della Torre, Barbaresco, Barolo, Borgomale, Bosia, Camo, Castiglione Falletto, Castiglione Tinella, Castino, Cherasco, Cortemilia, Cossano Belbo, Grinzane Cavour, La Morra, Lequio Berria, Mango, Monforte d'Alba, Montelupo Albese, Narzole, Neive, Neviglie, Novello, Rocchetta Belbo, Roddi, Roddino, Rodello, Santo Stefano Belbo, Serralunga d'Alba, Sinio, Torre Bormida, Treiso, Trezzo Tinella et Verduno (+/- 1.900 hectare de vignoble).
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Alba</t>
+          <t>Dolcetto_d'Alba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis à tendance violacé
 odeur : délicat, caractéristique
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Alba</t>
+          <t>Dolcetto_d'Alba</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,6 +563,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Alba</t>
+          <t>Dolcetto_d'Alba</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hors-d'œuvre de légumes et de charcuterie; soupes de légumes, risottos, raviolis aux cèpes, veau et bœuf.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dolcetto_d%27Alba</t>
+          <t>Dolcetto_d'Alba</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  Portail de la vigne et du vin   Portail du Piémont                    </t>
